--- a/Code/Results/Cases/Case_0_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_96/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.276943881793616</v>
+        <v>3.117862748653088</v>
       </c>
       <c r="D2">
-        <v>6.232543614785277</v>
+        <v>3.046292779653378</v>
       </c>
       <c r="E2">
-        <v>83.62469376389286</v>
+        <v>40.45818556876116</v>
       </c>
       <c r="F2">
-        <v>33.61094462897536</v>
+        <v>18.19546754165552</v>
       </c>
       <c r="G2">
-        <v>53.41758393091754</v>
+        <v>20.10098229929034</v>
       </c>
       <c r="H2">
-        <v>13.01127420275966</v>
+        <v>11.00280798847334</v>
       </c>
       <c r="I2">
-        <v>25.7238897146899</v>
+        <v>15.21992936458322</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>113.1650842897582</v>
+        <v>57.86297625733253</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.651733210665356</v>
+        <v>2.985404822067304</v>
       </c>
       <c r="D3">
-        <v>5.266512073309494</v>
+        <v>2.912887345307611</v>
       </c>
       <c r="E3">
-        <v>73.72448363993321</v>
+        <v>37.74110372221218</v>
       </c>
       <c r="F3">
-        <v>28.18251835495981</v>
+        <v>18.30961979242654</v>
       </c>
       <c r="G3">
-        <v>44.23220920702887</v>
+        <v>19.94606846167068</v>
       </c>
       <c r="H3">
-        <v>10.73682635190702</v>
+        <v>11.20115526189556</v>
       </c>
       <c r="I3">
-        <v>21.59601803643689</v>
+        <v>15.41042675248976</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>100.7145496235299</v>
+        <v>54.30956251382917</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.330453141944146</v>
+        <v>2.900653647319033</v>
       </c>
       <c r="D4">
-        <v>4.792083284637717</v>
+        <v>2.831489493402262</v>
       </c>
       <c r="E4">
-        <v>68.56429241261988</v>
+        <v>35.97246944501774</v>
       </c>
       <c r="F4">
-        <v>25.40414263899043</v>
+        <v>18.41178756805033</v>
       </c>
       <c r="G4">
-        <v>39.56922582730726</v>
+        <v>19.91466741458554</v>
       </c>
       <c r="H4">
-        <v>9.586991810992625</v>
+        <v>11.33283489561023</v>
       </c>
       <c r="I4">
-        <v>19.47714566078415</v>
+        <v>15.54940848617844</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>94.03731669090826</v>
+        <v>52.00425333440067</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.206540346505157</v>
+        <v>2.865274124193924</v>
       </c>
       <c r="D5">
-        <v>4.613521404947943</v>
+        <v>2.85537015173318</v>
       </c>
       <c r="E5">
-        <v>66.55800059287856</v>
+        <v>35.22632815649312</v>
       </c>
       <c r="F5">
-        <v>24.3423104563263</v>
+        <v>18.46112432416463</v>
       </c>
       <c r="G5">
-        <v>37.79342176106957</v>
+        <v>19.91730352813438</v>
       </c>
       <c r="H5">
-        <v>9.150340505662811</v>
+        <v>11.38890164584052</v>
       </c>
       <c r="I5">
-        <v>18.66533858238053</v>
+        <v>15.61132497513842</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>91.41325468646684</v>
+        <v>51.03382023237722</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.186258434254448</v>
+        <v>2.859349072903596</v>
       </c>
       <c r="D6">
-        <v>4.584537125595092</v>
+        <v>2.85937870655866</v>
       </c>
       <c r="E6">
-        <v>66.22870414977442</v>
+        <v>35.10089219952231</v>
       </c>
       <c r="F6">
-        <v>24.16921069040186</v>
+        <v>18.46977103922222</v>
       </c>
       <c r="G6">
-        <v>37.50425105696157</v>
+        <v>19.91865351042544</v>
       </c>
       <c r="H6">
-        <v>9.079314204977551</v>
+        <v>11.39835453862845</v>
       </c>
       <c r="I6">
-        <v>18.53286303634786</v>
+        <v>15.62191770812028</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>90.9812041413558</v>
+        <v>50.87081096585052</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.328759949405655</v>
+        <v>2.900179892803174</v>
       </c>
       <c r="D7">
-        <v>4.789626353796419</v>
+        <v>2.831808645075224</v>
       </c>
       <c r="E7">
-        <v>68.53694080777018</v>
+        <v>35.96250983502568</v>
       </c>
       <c r="F7">
-        <v>25.38958786212709</v>
+        <v>18.41242224167766</v>
       </c>
       <c r="G7">
-        <v>39.54486144535782</v>
+        <v>19.91464135899985</v>
       </c>
       <c r="H7">
-        <v>9.580995633531426</v>
+        <v>11.33358139235719</v>
       </c>
       <c r="I7">
-        <v>19.46602695437544</v>
+        <v>15.55022246771621</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>94.00164148767597</v>
+        <v>51.99129114053397</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.03931133742553</v>
+        <v>3.07291078442573</v>
       </c>
       <c r="D8">
-        <v>5.859240527139185</v>
+        <v>3.000911491442014</v>
       </c>
       <c r="E8">
-        <v>79.88015317278879</v>
+        <v>39.54205178757576</v>
       </c>
       <c r="F8">
-        <v>31.55276609697101</v>
+        <v>18.22795469900961</v>
       </c>
       <c r="G8">
-        <v>49.92251911434957</v>
+        <v>20.03403318266545</v>
       </c>
       <c r="H8">
-        <v>12.14469545906632</v>
+        <v>11.06909385686412</v>
       </c>
       <c r="I8">
-        <v>24.15985619004955</v>
+        <v>15.28088827812534</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>108.5197152495533</v>
+        <v>56.66340529209708</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.03931133742553</v>
+        <v>3.383904000936513</v>
       </c>
       <c r="D9">
-        <v>5.859240527139185</v>
+        <v>3.317479618262484</v>
       </c>
       <c r="E9">
-        <v>79.88015317278879</v>
+        <v>45.77360701996262</v>
       </c>
       <c r="F9">
-        <v>31.55276609697101</v>
+        <v>18.1361192416512</v>
       </c>
       <c r="G9">
-        <v>49.92251911434957</v>
+        <v>20.79200787107321</v>
       </c>
       <c r="H9">
-        <v>12.14469545906632</v>
+        <v>10.63289873603256</v>
       </c>
       <c r="I9">
-        <v>24.15985619004955</v>
+        <v>14.93901442756839</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>108.5197152495533</v>
+        <v>64.84605521001947</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.03931133742553</v>
+        <v>3.594945687979702</v>
       </c>
       <c r="D10">
-        <v>5.859240527139185</v>
+        <v>3.53619567158897</v>
       </c>
       <c r="E10">
-        <v>79.88015317278879</v>
+        <v>49.88316473305844</v>
       </c>
       <c r="F10">
-        <v>31.55276609697101</v>
+        <v>18.25237481984129</v>
       </c>
       <c r="G10">
-        <v>49.92251911434957</v>
+        <v>21.6809912343399</v>
       </c>
       <c r="H10">
-        <v>12.14469545906632</v>
+        <v>10.36864042461847</v>
       </c>
       <c r="I10">
-        <v>24.15985619004955</v>
+        <v>14.81730223377305</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>108.5197152495533</v>
+        <v>70.26494688010965</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.03931133742553</v>
+        <v>3.687112036132788</v>
       </c>
       <c r="D11">
-        <v>5.859240527139185</v>
+        <v>3.632812661679725</v>
       </c>
       <c r="E11">
-        <v>79.88015317278879</v>
+        <v>51.65348998288665</v>
       </c>
       <c r="F11">
-        <v>31.55276609697101</v>
+        <v>18.34859557229681</v>
       </c>
       <c r="G11">
-        <v>49.92251911434957</v>
+        <v>22.15693607674933</v>
       </c>
       <c r="H11">
-        <v>12.14469545906632</v>
+        <v>10.26207007294041</v>
       </c>
       <c r="I11">
-        <v>24.15985619004955</v>
+        <v>14.79338150661488</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>108.5197152495533</v>
+        <v>72.60301978195899</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.03931133742553</v>
+        <v>3.721459821253334</v>
       </c>
       <c r="D12">
-        <v>5.859240527139185</v>
+        <v>3.668997573977312</v>
       </c>
       <c r="E12">
-        <v>79.88015317278879</v>
+        <v>52.30982486036469</v>
       </c>
       <c r="F12">
-        <v>31.55276609697101</v>
+        <v>18.39149078529975</v>
       </c>
       <c r="G12">
-        <v>49.92251911434957</v>
+        <v>22.34721485605951</v>
       </c>
       <c r="H12">
-        <v>12.14469545906632</v>
+        <v>10.22380744151784</v>
       </c>
       <c r="I12">
-        <v>24.15985619004955</v>
+        <v>14.78910806253225</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>108.5197152495533</v>
+        <v>73.47028781423751</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.03931133742553</v>
+        <v>3.714087037396975</v>
       </c>
       <c r="D13">
-        <v>5.859240527139185</v>
+        <v>3.661222169617532</v>
       </c>
       <c r="E13">
-        <v>79.88015317278879</v>
+        <v>52.1690928792763</v>
       </c>
       <c r="F13">
-        <v>31.55276609697101</v>
+        <v>18.38196215233332</v>
       </c>
       <c r="G13">
-        <v>49.92251911434957</v>
+        <v>22.30579290959627</v>
       </c>
       <c r="H13">
-        <v>12.14469545906632</v>
+        <v>10.23195269415053</v>
       </c>
       <c r="I13">
-        <v>24.15985619004955</v>
+        <v>14.78981157883351</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>108.5197152495533</v>
+        <v>73.28430884111003</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.03931133742553</v>
+        <v>3.689948946392116</v>
       </c>
       <c r="D14">
-        <v>5.859240527139185</v>
+        <v>3.635797595300146</v>
       </c>
       <c r="E14">
-        <v>79.88015317278879</v>
+        <v>51.7077674057125</v>
       </c>
       <c r="F14">
-        <v>31.55276609697101</v>
+        <v>18.35199400792878</v>
       </c>
       <c r="G14">
-        <v>49.92251911434957</v>
+        <v>22.17239077770057</v>
       </c>
       <c r="H14">
-        <v>12.14469545906632</v>
+        <v>10.25887944546922</v>
       </c>
       <c r="I14">
-        <v>24.15985619004955</v>
+        <v>14.79293257518735</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>108.5197152495533</v>
+        <v>72.67473241755772</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.03931133742553</v>
+        <v>3.675091558287231</v>
       </c>
       <c r="D15">
-        <v>5.859240527139185</v>
+        <v>3.62017236098804</v>
       </c>
       <c r="E15">
-        <v>79.88015317278879</v>
+        <v>51.4233688787271</v>
       </c>
       <c r="F15">
-        <v>31.55276609697101</v>
+        <v>18.33448471799444</v>
       </c>
       <c r="G15">
-        <v>49.92251911434957</v>
+        <v>22.09197785474082</v>
       </c>
       <c r="H15">
-        <v>12.14469545906632</v>
+        <v>10.27564952064865</v>
       </c>
       <c r="I15">
-        <v>24.15985619004955</v>
+        <v>14.79547497446275</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>108.5197152495533</v>
+        <v>72.2989958561749</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.03931133742553</v>
+        <v>3.588844974820323</v>
       </c>
       <c r="D16">
-        <v>5.859240527139185</v>
+        <v>3.529824601196122</v>
       </c>
       <c r="E16">
-        <v>79.88015317278879</v>
+        <v>49.76549250997891</v>
       </c>
       <c r="F16">
-        <v>31.55276609697101</v>
+        <v>18.24697898963311</v>
       </c>
       <c r="G16">
-        <v>49.92251911434957</v>
+        <v>21.65130883857881</v>
       </c>
       <c r="H16">
-        <v>12.14469545906632</v>
+        <v>10.37589059713721</v>
       </c>
       <c r="I16">
-        <v>24.15985619004955</v>
+        <v>14.81952105267768</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>108.5197152495533</v>
+        <v>70.10960521788819</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.03931133742553</v>
+        <v>3.534950600767039</v>
       </c>
       <c r="D17">
-        <v>5.859240527139185</v>
+        <v>3.473670084828929</v>
       </c>
       <c r="E17">
-        <v>79.88015317278879</v>
+        <v>48.72319369756288</v>
       </c>
       <c r="F17">
-        <v>31.55276609697101</v>
+        <v>18.20457160054458</v>
       </c>
       <c r="G17">
-        <v>49.92251911434957</v>
+        <v>21.3991625038668</v>
       </c>
       <c r="H17">
-        <v>12.14469545906632</v>
+        <v>10.4409700212101</v>
       </c>
       <c r="I17">
-        <v>24.15985619004955</v>
+        <v>14.84251765218784</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>108.5197152495533</v>
+        <v>68.73405709940108</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.03931133742553</v>
+        <v>3.503590724769633</v>
       </c>
       <c r="D18">
-        <v>5.859240527139185</v>
+        <v>3.441099777747733</v>
       </c>
       <c r="E18">
-        <v>79.88015317278879</v>
+        <v>48.11434742795232</v>
       </c>
       <c r="F18">
-        <v>31.55276609697101</v>
+        <v>18.1842480158676</v>
       </c>
       <c r="G18">
-        <v>49.92251911434957</v>
+        <v>21.26089086518329</v>
       </c>
       <c r="H18">
-        <v>12.14469545906632</v>
+        <v>10.47967761068194</v>
       </c>
       <c r="I18">
-        <v>24.15985619004955</v>
+        <v>14.85868952368887</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>108.5197152495533</v>
+        <v>67.93091273850054</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.03931133742553</v>
+        <v>3.492910854921754</v>
       </c>
       <c r="D19">
-        <v>5.859240527139185</v>
+        <v>3.430025024162858</v>
       </c>
       <c r="E19">
-        <v>79.88015317278879</v>
+        <v>47.90659158341467</v>
       </c>
       <c r="F19">
-        <v>31.55276609697101</v>
+        <v>18.17805785456827</v>
       </c>
       <c r="G19">
-        <v>49.92251911434957</v>
+        <v>21.21524028895621</v>
       </c>
       <c r="H19">
-        <v>12.14469545906632</v>
+        <v>10.49299856649724</v>
       </c>
       <c r="I19">
-        <v>24.15985619004955</v>
+        <v>14.86466260996481</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>108.5197152495533</v>
+        <v>67.65692247777952</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.03931133742553</v>
+        <v>3.540725157732099</v>
       </c>
       <c r="D20">
-        <v>5.859240527139185</v>
+        <v>3.479675868392933</v>
       </c>
       <c r="E20">
-        <v>79.88015317278879</v>
+        <v>48.83511373187852</v>
       </c>
       <c r="F20">
-        <v>31.55276609697101</v>
+        <v>18.20866313037461</v>
       </c>
       <c r="G20">
-        <v>49.92251911434957</v>
+        <v>21.42530604524976</v>
       </c>
       <c r="H20">
-        <v>12.14469545906632</v>
+        <v>10.43390925922363</v>
       </c>
       <c r="I20">
-        <v>24.15985619004955</v>
+        <v>14.83976290127931</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>108.5197152495533</v>
+        <v>68.8817238840238</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.03931133742553</v>
+        <v>3.697053916593846</v>
       </c>
       <c r="D21">
-        <v>5.859240527139185</v>
+        <v>3.643276211407927</v>
       </c>
       <c r="E21">
-        <v>79.88015317278879</v>
+        <v>51.84364948852161</v>
       </c>
       <c r="F21">
-        <v>31.55276609697101</v>
+        <v>18.36061950902042</v>
       </c>
       <c r="G21">
-        <v>49.92251911434957</v>
+        <v>22.21130392409385</v>
       </c>
       <c r="H21">
-        <v>12.14469545906632</v>
+        <v>10.25091250211756</v>
       </c>
       <c r="I21">
-        <v>24.15985619004955</v>
+        <v>14.79188397628014</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>108.5197152495533</v>
+        <v>72.85426992790298</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.03931133742553</v>
+        <v>3.795997668095413</v>
       </c>
       <c r="D22">
-        <v>5.859240527139185</v>
+        <v>3.747862931069757</v>
       </c>
       <c r="E22">
-        <v>79.88015317278879</v>
+        <v>53.72811402757507</v>
       </c>
       <c r="F22">
-        <v>31.55276609697101</v>
+        <v>18.4976500701577</v>
       </c>
       <c r="G22">
-        <v>49.92251911434957</v>
+        <v>22.78339180836969</v>
       </c>
       <c r="H22">
-        <v>12.14469545906632</v>
+        <v>10.14358213369749</v>
       </c>
       <c r="I22">
-        <v>24.15985619004955</v>
+        <v>14.78859343804165</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>108.5197152495533</v>
+        <v>75.34509059182703</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.03931133742553</v>
+        <v>3.743484726170014</v>
       </c>
       <c r="D23">
-        <v>5.859240527139185</v>
+        <v>3.692252353962883</v>
       </c>
       <c r="E23">
-        <v>79.88015317278879</v>
+        <v>52.72975365727019</v>
       </c>
       <c r="F23">
-        <v>31.55276609697101</v>
+        <v>18.42099973047372</v>
       </c>
       <c r="G23">
-        <v>49.92251911434957</v>
+        <v>22.47281964945533</v>
       </c>
       <c r="H23">
-        <v>12.14469545906632</v>
+        <v>10.1996979619892</v>
       </c>
       <c r="I23">
-        <v>24.15985619004955</v>
+        <v>14.78770439643253</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>108.5197152495533</v>
+        <v>74.02528606865795</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.03931133742553</v>
+        <v>3.538115649288525</v>
       </c>
       <c r="D24">
-        <v>5.859240527139185</v>
+        <v>3.476961546380185</v>
       </c>
       <c r="E24">
-        <v>79.88015317278879</v>
+        <v>48.78454464786194</v>
       </c>
       <c r="F24">
-        <v>31.55276609697101</v>
+        <v>18.20680073089208</v>
       </c>
       <c r="G24">
-        <v>49.92251911434957</v>
+        <v>21.41346569327565</v>
       </c>
       <c r="H24">
-        <v>12.14469545906632</v>
+        <v>10.43709741352301</v>
       </c>
       <c r="I24">
-        <v>24.15985619004955</v>
+        <v>14.84099915312579</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>108.5197152495533</v>
+        <v>68.81500212681868</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.03931133742553</v>
+        <v>3.302808276052957</v>
       </c>
       <c r="D25">
-        <v>5.859240527139185</v>
+        <v>3.234312358067003</v>
       </c>
       <c r="E25">
-        <v>79.88015317278879</v>
+        <v>44.17097840077794</v>
       </c>
       <c r="F25">
-        <v>31.55276609697101</v>
+        <v>18.12998083118707</v>
       </c>
       <c r="G25">
-        <v>49.92251911434957</v>
+        <v>20.52893027953693</v>
       </c>
       <c r="H25">
-        <v>12.14469545906632</v>
+        <v>10.74148834211996</v>
       </c>
       <c r="I25">
-        <v>24.15985619004955</v>
+        <v>15.0099124396435</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>108.5197152495533</v>
+        <v>62.73699630211868</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_96/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.117862748653088</v>
+        <v>5.276943881793605</v>
       </c>
       <c r="D2">
-        <v>3.046292779653378</v>
+        <v>6.232543614785214</v>
       </c>
       <c r="E2">
-        <v>40.45818556876116</v>
+        <v>83.62469376389298</v>
       </c>
       <c r="F2">
-        <v>18.19546754165552</v>
+        <v>33.61094462897519</v>
       </c>
       <c r="G2">
-        <v>20.10098229929034</v>
+        <v>53.41758393091729</v>
       </c>
       <c r="H2">
-        <v>11.00280798847334</v>
+        <v>13.01127420275955</v>
       </c>
       <c r="I2">
-        <v>15.21992936458322</v>
+        <v>25.7238897146897</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>57.86297625733253</v>
+        <v>113.1650842897583</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.985404822067304</v>
+        <v>4.651733210665356</v>
       </c>
       <c r="D3">
-        <v>2.912887345307611</v>
+        <v>5.2665120733095</v>
       </c>
       <c r="E3">
-        <v>37.74110372221218</v>
+        <v>73.72448363993335</v>
       </c>
       <c r="F3">
-        <v>18.30961979242654</v>
+        <v>28.1825183549599</v>
       </c>
       <c r="G3">
-        <v>19.94606846167068</v>
+        <v>44.23220920702883</v>
       </c>
       <c r="H3">
-        <v>11.20115526189556</v>
+        <v>10.73682635190704</v>
       </c>
       <c r="I3">
-        <v>15.41042675248976</v>
+        <v>21.59601803643696</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>54.30956251382917</v>
+        <v>100.7145496235301</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.900653647319033</v>
+        <v>4.330453141944141</v>
       </c>
       <c r="D4">
-        <v>2.831489493402262</v>
+        <v>4.792083284637653</v>
       </c>
       <c r="E4">
-        <v>35.97246944501774</v>
+        <v>68.56429241261995</v>
       </c>
       <c r="F4">
-        <v>18.41178756805033</v>
+        <v>25.40414263899068</v>
       </c>
       <c r="G4">
-        <v>19.91466741458554</v>
+        <v>39.56922582730791</v>
       </c>
       <c r="H4">
-        <v>11.33283489561023</v>
+        <v>9.586991810992666</v>
       </c>
       <c r="I4">
-        <v>15.54940848617844</v>
+        <v>19.47714566078431</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>52.00425333440067</v>
+        <v>94.03731669090831</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.865274124193924</v>
+        <v>4.206540346505229</v>
       </c>
       <c r="D5">
-        <v>2.85537015173318</v>
+        <v>4.613521404947762</v>
       </c>
       <c r="E5">
-        <v>35.22632815649312</v>
+        <v>66.55800059287847</v>
       </c>
       <c r="F5">
-        <v>18.46112432416463</v>
+        <v>24.34231045632621</v>
       </c>
       <c r="G5">
-        <v>19.91730352813438</v>
+        <v>37.79342176106925</v>
       </c>
       <c r="H5">
-        <v>11.38890164584052</v>
+        <v>9.150340505662772</v>
       </c>
       <c r="I5">
-        <v>15.61132497513842</v>
+        <v>18.66533858238041</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>51.03382023237722</v>
+        <v>91.41325468646674</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.859349072903596</v>
+        <v>4.18625843425455</v>
       </c>
       <c r="D6">
-        <v>2.85937870655866</v>
+        <v>4.584537125595149</v>
       </c>
       <c r="E6">
-        <v>35.10089219952231</v>
+        <v>66.22870414977459</v>
       </c>
       <c r="F6">
-        <v>18.46977103922222</v>
+        <v>24.16921069040231</v>
       </c>
       <c r="G6">
-        <v>19.91865351042544</v>
+        <v>37.50425105696243</v>
       </c>
       <c r="H6">
-        <v>11.39835453862845</v>
+        <v>9.079314204977676</v>
       </c>
       <c r="I6">
-        <v>15.62191770812028</v>
+        <v>18.53286303634819</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>50.87081096585052</v>
+        <v>90.98120414135606</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.900179892803174</v>
+        <v>4.328759949405649</v>
       </c>
       <c r="D7">
-        <v>2.831808645075224</v>
+        <v>4.789626353796423</v>
       </c>
       <c r="E7">
-        <v>35.96250983502568</v>
+        <v>68.53694080777043</v>
       </c>
       <c r="F7">
-        <v>18.41242224167766</v>
+        <v>25.38958786212686</v>
       </c>
       <c r="G7">
-        <v>19.91464135899985</v>
+        <v>39.54486144535748</v>
       </c>
       <c r="H7">
-        <v>11.33358139235719</v>
+        <v>9.580995633531348</v>
       </c>
       <c r="I7">
-        <v>15.55022246771621</v>
+        <v>19.46602695437526</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>51.99129114053397</v>
+        <v>94.00164148767605</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.07291078442573</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D8">
-        <v>3.000911491442014</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E8">
-        <v>39.54205178757576</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F8">
-        <v>18.22795469900961</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G8">
-        <v>20.03403318266545</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H8">
-        <v>11.06909385686412</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I8">
-        <v>15.28088827812534</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>56.66340529209708</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.383904000936513</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D9">
-        <v>3.317479618262484</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E9">
-        <v>45.77360701996262</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F9">
-        <v>18.1361192416512</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G9">
-        <v>20.79200787107321</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H9">
-        <v>10.63289873603256</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I9">
-        <v>14.93901442756839</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>64.84605521001947</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.594945687979702</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D10">
-        <v>3.53619567158897</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E10">
-        <v>49.88316473305844</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F10">
-        <v>18.25237481984129</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G10">
-        <v>21.6809912343399</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H10">
-        <v>10.36864042461847</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I10">
-        <v>14.81730223377305</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>70.26494688010965</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.687112036132788</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D11">
-        <v>3.632812661679725</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E11">
-        <v>51.65348998288665</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F11">
-        <v>18.34859557229681</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G11">
-        <v>22.15693607674933</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H11">
-        <v>10.26207007294041</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I11">
-        <v>14.79338150661488</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>72.60301978195899</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.721459821253334</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D12">
-        <v>3.668997573977312</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E12">
-        <v>52.30982486036469</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F12">
-        <v>18.39149078529975</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G12">
-        <v>22.34721485605951</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H12">
-        <v>10.22380744151784</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I12">
-        <v>14.78910806253225</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>73.47028781423751</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.714087037396975</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D13">
-        <v>3.661222169617532</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E13">
-        <v>52.1690928792763</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F13">
-        <v>18.38196215233332</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G13">
-        <v>22.30579290959627</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H13">
-        <v>10.23195269415053</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I13">
-        <v>14.78981157883351</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>73.28430884111003</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.689948946392116</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D14">
-        <v>3.635797595300146</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E14">
-        <v>51.7077674057125</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F14">
-        <v>18.35199400792878</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G14">
-        <v>22.17239077770057</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H14">
-        <v>10.25887944546922</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I14">
-        <v>14.79293257518735</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>72.67473241755772</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.675091558287231</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D15">
-        <v>3.62017236098804</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E15">
-        <v>51.4233688787271</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F15">
-        <v>18.33448471799444</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G15">
-        <v>22.09197785474082</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H15">
-        <v>10.27564952064865</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I15">
-        <v>14.79547497446275</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>72.2989958561749</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.588844974820323</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D16">
-        <v>3.529824601196122</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E16">
-        <v>49.76549250997891</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F16">
-        <v>18.24697898963311</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G16">
-        <v>21.65130883857881</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H16">
-        <v>10.37589059713721</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I16">
-        <v>14.81952105267768</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>70.10960521788819</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.534950600767039</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D17">
-        <v>3.473670084828929</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E17">
-        <v>48.72319369756288</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F17">
-        <v>18.20457160054458</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G17">
-        <v>21.3991625038668</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H17">
-        <v>10.4409700212101</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I17">
-        <v>14.84251765218784</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>68.73405709940108</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.503590724769633</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D18">
-        <v>3.441099777747733</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E18">
-        <v>48.11434742795232</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F18">
-        <v>18.1842480158676</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G18">
-        <v>21.26089086518329</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H18">
-        <v>10.47967761068194</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I18">
-        <v>14.85868952368887</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>67.93091273850054</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.492910854921754</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D19">
-        <v>3.430025024162858</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E19">
-        <v>47.90659158341467</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F19">
-        <v>18.17805785456827</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G19">
-        <v>21.21524028895621</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H19">
-        <v>10.49299856649724</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I19">
-        <v>14.86466260996481</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>67.65692247777952</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.540725157732099</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D20">
-        <v>3.479675868392933</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E20">
-        <v>48.83511373187852</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F20">
-        <v>18.20866313037461</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G20">
-        <v>21.42530604524976</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H20">
-        <v>10.43390925922363</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I20">
-        <v>14.83976290127931</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>68.8817238840238</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.697053916593846</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D21">
-        <v>3.643276211407927</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E21">
-        <v>51.84364948852161</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F21">
-        <v>18.36061950902042</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G21">
-        <v>22.21130392409385</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H21">
-        <v>10.25091250211756</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I21">
-        <v>14.79188397628014</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>72.85426992790298</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.795997668095413</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D22">
-        <v>3.747862931069757</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E22">
-        <v>53.72811402757507</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F22">
-        <v>18.4976500701577</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G22">
-        <v>22.78339180836969</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H22">
-        <v>10.14358213369749</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I22">
-        <v>14.78859343804165</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>75.34509059182703</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.743484726170014</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D23">
-        <v>3.692252353962883</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E23">
-        <v>52.72975365727019</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F23">
-        <v>18.42099973047372</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G23">
-        <v>22.47281964945533</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H23">
-        <v>10.1996979619892</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I23">
-        <v>14.78770439643253</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>74.02528606865795</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.538115649288525</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D24">
-        <v>3.476961546380185</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E24">
-        <v>48.78454464786194</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F24">
-        <v>18.20680073089208</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G24">
-        <v>21.41346569327565</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H24">
-        <v>10.43709741352301</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I24">
-        <v>14.84099915312579</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>68.81500212681868</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.302808276052957</v>
+        <v>5.039311337425525</v>
       </c>
       <c r="D25">
-        <v>3.234312358067003</v>
+        <v>5.859240527139122</v>
       </c>
       <c r="E25">
-        <v>44.17097840077794</v>
+        <v>79.88015317278887</v>
       </c>
       <c r="F25">
-        <v>18.12998083118707</v>
+        <v>31.55276609697074</v>
       </c>
       <c r="G25">
-        <v>20.52893027953693</v>
+        <v>49.92251911434897</v>
       </c>
       <c r="H25">
-        <v>10.74148834211996</v>
+        <v>12.14469545906622</v>
       </c>
       <c r="I25">
-        <v>15.0099124396435</v>
+        <v>24.15985619004932</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>62.73699630211868</v>
+        <v>108.5197152495533</v>
       </c>
       <c r="N25">
         <v>0</v>
